--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Il1rapl1-Ptprf.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Il1rapl1-Ptprf.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,16 +537,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.0329611350632683</v>
+        <v>0.03637433333333333</v>
       </c>
       <c r="H2">
-        <v>0.0329611350632683</v>
+        <v>0.109123</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,34 +555,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.0716698723529368</v>
+        <v>0.2138683333333334</v>
       </c>
       <c r="N2">
-        <v>0.0716698723529368</v>
+        <v>0.6416050000000001</v>
       </c>
       <c r="O2">
-        <v>0.009399921761842475</v>
+        <v>0.02663324640928231</v>
       </c>
       <c r="P2">
-        <v>0.009399921761842475</v>
+        <v>0.02663324640928232</v>
       </c>
       <c r="Q2">
-        <v>0.002362320342592349</v>
+        <v>0.007779318046111112</v>
       </c>
       <c r="R2">
-        <v>0.002362320342592349</v>
+        <v>0.070013862415</v>
       </c>
       <c r="S2">
-        <v>0.009399921761842475</v>
+        <v>0.02663324640928231</v>
       </c>
       <c r="T2">
-        <v>0.009399921761842475</v>
+        <v>0.02663324640928232</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +599,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.0329611350632683</v>
+        <v>0.03637433333333333</v>
       </c>
       <c r="H3">
-        <v>0.0329611350632683</v>
+        <v>0.109123</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -614,34 +617,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.79539757230939</v>
+        <v>3.876179</v>
       </c>
       <c r="N3">
-        <v>3.79539757230939</v>
+        <v>11.628537</v>
       </c>
       <c r="O3">
-        <v>0.497788527641116</v>
+        <v>0.4827046100021922</v>
       </c>
       <c r="P3">
-        <v>0.497788527641116</v>
+        <v>0.4827046100021922</v>
       </c>
       <c r="Q3">
-        <v>0.1251006119996904</v>
+        <v>0.1409934270056667</v>
       </c>
       <c r="R3">
-        <v>0.1251006119996904</v>
+        <v>1.268940843051</v>
       </c>
       <c r="S3">
-        <v>0.497788527641116</v>
+        <v>0.4827046100021922</v>
       </c>
       <c r="T3">
-        <v>0.497788527641116</v>
+        <v>0.4827046100021922</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +661,16 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.0329611350632683</v>
+        <v>0.03637433333333333</v>
       </c>
       <c r="H4">
-        <v>0.0329611350632683</v>
+        <v>0.109123</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,34 +679,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.148493352936863</v>
+        <v>0.02104366666666667</v>
       </c>
       <c r="N4">
-        <v>0.148493352936863</v>
+        <v>0.06313100000000001</v>
       </c>
       <c r="O4">
-        <v>0.01947576930075245</v>
+        <v>0.00262058973833496</v>
       </c>
       <c r="P4">
-        <v>0.01947576930075245</v>
+        <v>0.00262058973833496</v>
       </c>
       <c r="Q4">
-        <v>0.004894509462149511</v>
+        <v>0.000765449345888889</v>
       </c>
       <c r="R4">
-        <v>0.004894509462149511</v>
+        <v>0.006889044113</v>
       </c>
       <c r="S4">
-        <v>0.01947576930075245</v>
+        <v>0.00262058973833496</v>
       </c>
       <c r="T4">
-        <v>0.01947576930075245</v>
+        <v>0.00262058973833496</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +723,16 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.0329611350632683</v>
+        <v>0.03637433333333333</v>
       </c>
       <c r="H5">
-        <v>0.0329611350632683</v>
+        <v>0.109123</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -738,34 +741,34 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.0349314136909622</v>
+        <v>0.237489</v>
       </c>
       <c r="N5">
-        <v>0.0349314136909622</v>
+        <v>0.7124669999999999</v>
       </c>
       <c r="O5">
-        <v>0.004581458637300655</v>
+        <v>0.02957475264295343</v>
       </c>
       <c r="P5">
-        <v>0.004581458637300655</v>
+        <v>0.02957475264295343</v>
       </c>
       <c r="Q5">
-        <v>0.001151379044618704</v>
+        <v>0.008638504048999998</v>
       </c>
       <c r="R5">
-        <v>0.001151379044618704</v>
+        <v>0.07774653644099998</v>
       </c>
       <c r="S5">
-        <v>0.004581458637300655</v>
+        <v>0.02957475264295343</v>
       </c>
       <c r="T5">
-        <v>0.004581458637300655</v>
+        <v>0.02957475264295343</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,55 +782,117 @@
         <v>22</v>
       </c>
       <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.03637433333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.109123</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.05256933333333333</v>
+      </c>
+      <c r="N6">
+        <v>0.157708</v>
+      </c>
+      <c r="O6">
+        <v>0.006546513859329486</v>
+      </c>
+      <c r="P6">
+        <v>0.006546513859329486</v>
+      </c>
+      <c r="Q6">
+        <v>0.001912174453777778</v>
+      </c>
+      <c r="R6">
+        <v>0.017209570084</v>
+      </c>
+      <c r="S6">
+        <v>0.006546513859329486</v>
+      </c>
+      <c r="T6">
+        <v>0.006546513859329486</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
         <v>20</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0.0329611350632683</v>
-      </c>
-      <c r="H6">
-        <v>0.0329611350632683</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>3.57402575479224</v>
-      </c>
-      <c r="N6">
-        <v>3.57402575479224</v>
-      </c>
-      <c r="O6">
-        <v>0.4687543226589885</v>
-      </c>
-      <c r="P6">
-        <v>0.4687543226589885</v>
-      </c>
-      <c r="Q6">
-        <v>0.1178039456233065</v>
-      </c>
-      <c r="R6">
-        <v>0.1178039456233065</v>
-      </c>
-      <c r="S6">
-        <v>0.4687543226589885</v>
-      </c>
-      <c r="T6">
-        <v>0.4687543226589885</v>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.03637433333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.109123</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>3.628977</v>
+      </c>
+      <c r="N7">
+        <v>10.886931</v>
+      </c>
+      <c r="O7">
+        <v>0.4519202873479077</v>
+      </c>
+      <c r="P7">
+        <v>0.4519202873479077</v>
+      </c>
+      <c r="Q7">
+        <v>0.132001619057</v>
+      </c>
+      <c r="R7">
+        <v>1.188014571513</v>
+      </c>
+      <c r="S7">
+        <v>0.4519202873479077</v>
+      </c>
+      <c r="T7">
+        <v>0.4519202873479077</v>
       </c>
     </row>
   </sheetData>
